--- a/data/scheduling_DNN/predict/0.1/result9.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result9.xlsx
@@ -570,10 +570,10 @@
         <v>0.872236967086792</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.4838465452194214</v>
       </c>
       <c r="W2" t="n">
-        <v>0.003638504771515727</v>
+        <v>0.1508471220731735</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8692641258239746</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.9817334413528442</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1545170098543167</v>
+        <v>0.01264934707432985</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9539790153503418</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.9149643778800964</v>
       </c>
       <c r="W4" t="n">
-        <v>0.110673114657402</v>
+        <v>0.001522141974419355</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9009449481964111</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.4803488254547119</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1106701046228409</v>
+        <v>0.17690110206604</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.898871898651123</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.5295601487159729</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2142398953437805</v>
+        <v>0.1363911628723145</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8694899082183838</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.8815138936042786</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1690903007984161</v>
+        <v>0.000144576231832616</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9393069744110107</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4816282391548157</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2047864496707916</v>
+        <v>0.2094698250293732</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8790168762207031</v>
       </c>
       <c r="V9" t="n">
-        <v>0.474732518196106</v>
+        <v>0.8865654468536377</v>
       </c>
       <c r="W9" t="n">
-        <v>0.163445845246315</v>
+        <v>5.698091990780085e-05</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8885660171508789</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5063596963882446</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1745623201131821</v>
+        <v>0.1460816711187363</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8762068748474121</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.5066130757331848</v>
       </c>
       <c r="W11" t="n">
-        <v>0.003368035424500704</v>
+        <v>0.1365995705127716</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8978400230407715</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5329973101615906</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02072005346417427</v>
+        <v>0.1331102102994919</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8726530075073242</v>
       </c>
       <c r="V13" t="n">
-        <v>0.480756551027298</v>
+        <v>0.4801607728004456</v>
       </c>
       <c r="W13" t="n">
-        <v>0.153582826256752</v>
+        <v>0.1540501564741135</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8696630001068115</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.9931854009628296</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06281271576881409</v>
+        <v>0.01525778323411942</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9077839851379395</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4806597232818604</v>
       </c>
       <c r="W15" t="n">
-        <v>0.008334886282682419</v>
+        <v>0.1824351400136948</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8763811588287354</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.4833984375</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1513740718364716</v>
+        <v>0.1544354259967804</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8759372234344482</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.464436411857605</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05241909623146057</v>
+        <v>0.1693329215049744</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8774631023406982</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4808101058006287</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1607392430305481</v>
+        <v>0.1573335975408554</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8578250408172607</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.4699878692626953</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1271863728761673</v>
+        <v>0.1504176706075668</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8745810985565186</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.9047621488571167</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1920845955610275</v>
+        <v>0.0009108958183787763</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8755600452423096</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.4707229733467102</v>
       </c>
       <c r="W21" t="n">
-        <v>0.06592967361211777</v>
+        <v>0.1638930588960648</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5236871242523193</v>
       </c>
       <c r="V22" t="n">
-        <v>0.435836523771286</v>
+        <v>0.9327018260955811</v>
       </c>
       <c r="W22" t="n">
-        <v>0.007717728149145842</v>
+        <v>0.1672930270433426</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5238211154937744</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4708766341209412</v>
       </c>
       <c r="W23" t="n">
-        <v>0.009520149789750576</v>
+        <v>0.002803118200972676</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.590008020401001</v>
       </c>
       <c r="V24" t="n">
-        <v>0.458252340555191</v>
+        <v>0.5127757787704468</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01735955849289894</v>
+        <v>0.005964819341897964</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.522691011428833</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.5294677019119263</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001202711253426969</v>
+        <v>4.592353434418328e-05</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5292730331420898</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4868144989013672</v>
       </c>
       <c r="W26" t="n">
-        <v>0.08263590931892395</v>
+        <v>0.001802727114409208</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5154130458831787</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5097867846488953</v>
       </c>
       <c r="W27" t="n">
-        <v>0.002458649920299649</v>
+        <v>3.165481393807568e-05</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5139799118041992</v>
       </c>
       <c r="V28" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.9841151237487793</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04830606281757355</v>
+        <v>0.2210271209478378</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5250480175018311</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.5875653028488159</v>
       </c>
       <c r="W29" t="n">
-        <v>0.007973905652761459</v>
+        <v>0.003908411134034395</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5339841842651367</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4770733118057251</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02273901924490929</v>
+        <v>0.003238847479224205</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5165090560913086</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.8987035155296326</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0913320928812027</v>
+        <v>0.1460726112127304</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.522942066192627</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.4759137630462646</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0065177739597857</v>
+        <v>0.002211661310866475</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.514754056930542</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.4708537459373474</v>
       </c>
       <c r="W33" t="n">
-        <v>0.005288348998874426</v>
+        <v>0.001927237259224057</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5335230827331543</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.9848973751068115</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0003643232921604067</v>
+        <v>0.2037387490272522</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.563262939453125</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.8868994116783142</v>
       </c>
       <c r="W35" t="n">
-        <v>0.008804850280284882</v>
+        <v>0.1047405675053596</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5161278247833252</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.8852715492248535</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01183047518134117</v>
+        <v>0.1362670958042145</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5131950378417969</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.4973978996276855</v>
       </c>
       <c r="W37" t="n">
-        <v>0.005997400265187025</v>
+        <v>0.000249549571890384</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5134701728820801</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.4805673360824585</v>
       </c>
       <c r="W38" t="n">
-        <v>0.003887883620336652</v>
+        <v>0.001082596718333662</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5138847827911377</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5495977997779846</v>
       </c>
       <c r="W39" t="n">
-        <v>0.002269157441332936</v>
+        <v>0.001275419606827199</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5406398773193359</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.4863083362579346</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0009377364185638726</v>
+        <v>0.002951916307210922</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5494978427886963</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.5301018953323364</v>
       </c>
       <c r="W41" t="n">
-        <v>0.001826808438636363</v>
+        <v>0.0003762027772609144</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3921418190002441</v>
       </c>
       <c r="V42" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5872539877891541</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1764187961816788</v>
+        <v>0.03806876018643379</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4241518974304199</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.9090988039970398</v>
       </c>
       <c r="W43" t="n">
-        <v>0.005549712106585503</v>
+        <v>0.2351735085248947</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3895859718322754</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.9184013605117798</v>
       </c>
       <c r="W44" t="n">
-        <v>0.004329088609665632</v>
+        <v>0.279645711183548</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3915879726409912</v>
       </c>
       <c r="V45" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5123894214630127</v>
       </c>
       <c r="W45" t="n">
-        <v>0.006334993988275528</v>
+        <v>0.01459299027919769</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4122788906097412</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.4805325269699097</v>
       </c>
       <c r="W46" t="n">
-        <v>0.03700798004865646</v>
+        <v>0.004658558871597052</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4104831218719482</v>
       </c>
       <c r="V47" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5036259293556213</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1611939072608948</v>
+        <v>0.008675582706928253</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3929009437561035</v>
       </c>
       <c r="V48" t="n">
-        <v>0.56818687915802</v>
+        <v>0.5295174121856689</v>
       </c>
       <c r="W48" t="n">
-        <v>0.03072515875101089</v>
+        <v>0.01866406016051769</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3860170841217041</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4977966547012329</v>
       </c>
       <c r="W49" t="n">
-        <v>0.005143908783793449</v>
+        <v>0.01249467208981514</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3869640827178955</v>
       </c>
       <c r="V50" t="n">
-        <v>0.476378470659256</v>
+        <v>0.8745623230934143</v>
       </c>
       <c r="W50" t="n">
-        <v>0.007994933053851128</v>
+        <v>0.2377520501613617</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3902289867401123</v>
       </c>
       <c r="V51" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.923128604888916</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1121849343180656</v>
+        <v>0.2839820086956024</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3861439228057861</v>
       </c>
       <c r="V52" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4852215051651001</v>
       </c>
       <c r="W52" t="n">
-        <v>0.03336223214864731</v>
+        <v>0.00981636717915535</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3880219459533691</v>
       </c>
       <c r="V53" t="n">
-        <v>0.551414966583252</v>
+        <v>0.5865045785903931</v>
       </c>
       <c r="W53" t="n">
-        <v>0.02669727988541126</v>
+        <v>0.03939535468816757</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3905580043792725</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.47090083360672</v>
       </c>
       <c r="W54" t="n">
-        <v>0.05451535061001778</v>
+        <v>0.006454970221966505</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3949768543243408</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.5329484939575195</v>
       </c>
       <c r="W55" t="n">
-        <v>0.001652052626013756</v>
+        <v>0.01903617382049561</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.389091968536377</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.9264468550682068</v>
       </c>
       <c r="W56" t="n">
-        <v>0.004785498604178429</v>
+        <v>0.2887502610683441</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3855090141296387</v>
       </c>
       <c r="V57" t="n">
-        <v>0.43533855676651</v>
+        <v>0.8688220381736755</v>
       </c>
       <c r="W57" t="n">
-        <v>0.002482983283698559</v>
+        <v>0.2335914820432663</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3868820667266846</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.490752637386322</v>
       </c>
       <c r="W58" t="n">
-        <v>0.02980922907590866</v>
+        <v>0.01078909542411566</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3889081478118896</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.4888943433761597</v>
       </c>
       <c r="W59" t="n">
-        <v>0.007358483504503965</v>
+        <v>0.009997239336371422</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3877649307250977</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.952954113483429</v>
       </c>
       <c r="W60" t="n">
-        <v>0.03570843487977982</v>
+        <v>0.3194388151168823</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3991618156433105</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.470594048500061</v>
       </c>
       <c r="W61" t="n">
-        <v>0.04861314967274666</v>
+        <v>0.005102564115077257</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8795089721679688</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.964025616645813</v>
       </c>
       <c r="W62" t="n">
-        <v>0.196980819106102</v>
+        <v>0.007143063005059958</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8758289813995361</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4819425940513611</v>
       </c>
       <c r="W63" t="n">
-        <v>0.06670931726694107</v>
+        <v>0.1551464796066284</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8767518997192383</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4739369750022888</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1756576150655746</v>
+        <v>0.1622598618268967</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8943839073181152</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4816501140594482</v>
       </c>
       <c r="W65" t="n">
-        <v>0.07316821813583374</v>
+        <v>0.1703491806983948</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8620500564575195</v>
       </c>
       <c r="V66" t="n">
-        <v>0.551541268825531</v>
+        <v>0.6036058664321899</v>
       </c>
       <c r="W66" t="n">
-        <v>0.09641570597887039</v>
+        <v>0.06679339706897736</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8698818683624268</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.8852105736732483</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1719495952129364</v>
+        <v>0.0002349692076677456</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8929159641265869</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.4824126958847046</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1050772219896317</v>
+        <v>0.1685129404067993</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8658418655395508</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.8828951716423035</v>
       </c>
       <c r="W69" t="n">
-        <v>0.09866811335086823</v>
+        <v>0.0002908152528107166</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8646130561828613</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5504429936408997</v>
       </c>
       <c r="W70" t="n">
-        <v>0.09716490656137466</v>
+        <v>0.09870282560586929</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8638138771057129</v>
       </c>
       <c r="V71" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5330818891525269</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1526663899421692</v>
+        <v>0.109383650124073</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8765199184417725</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.9639478921890259</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1786770224571228</v>
+        <v>0.007643650751560926</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8784339427947998</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4846152663230896</v>
       </c>
       <c r="W73" t="n">
-        <v>0.06466551870107651</v>
+        <v>0.1550931483507156</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8586740493774414</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.8660550117492676</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1260962933301926</v>
+        <v>5.447860530694015e-05</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8646259307861328</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4825762510299683</v>
       </c>
       <c r="W75" t="n">
-        <v>0.05790992453694344</v>
+        <v>0.1459619551897049</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8654680252075195</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.8867849111557007</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1538769006729126</v>
+        <v>0.0004544096300378442</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8853671550750732</v>
       </c>
       <c r="V77" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5049488544464111</v>
       </c>
       <c r="W77" t="n">
-        <v>0.02575862035155296</v>
+        <v>0.1447180807590485</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8882138729095459</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4879571795463562</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1798498779535294</v>
+        <v>0.1602054238319397</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9346151351928711</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.8860061168670654</v>
       </c>
       <c r="W79" t="n">
-        <v>0.07929667830467224</v>
+        <v>0.002362836617976427</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8740260601043701</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.5294227600097656</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1731278449296951</v>
+        <v>0.1187514364719391</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8725211620330811</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.5872527956962585</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1574287563562393</v>
+        <v>0.08137804269790649</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5512111186981201</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.9231476187705994</v>
       </c>
       <c r="W82" t="n">
-        <v>0.004883782006800175</v>
+        <v>0.1383367627859116</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5312089920043945</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.8998100161552429</v>
       </c>
       <c r="W83" t="n">
-        <v>0.003650029888376594</v>
+        <v>0.135866716504097</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5890309810638428</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5871689915657043</v>
       </c>
       <c r="W84" t="n">
-        <v>0.001262226374819875</v>
+        <v>3.467004944468499e-06</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5270800590515137</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.4804540872573853</v>
       </c>
       <c r="W85" t="n">
-        <v>0.008822398260235786</v>
+        <v>0.002173981163650751</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5208809375762939</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9491488337516785</v>
       </c>
       <c r="W86" t="n">
-        <v>0.000975117611233145</v>
+        <v>0.1834133863449097</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5280430316925049</v>
       </c>
       <c r="V87" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5297059416770935</v>
       </c>
       <c r="W87" t="n">
-        <v>0.04232712090015411</v>
+        <v>2.765269528026693e-06</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5216350555419922</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.5327395796775818</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01263934746384621</v>
+        <v>0.0001233104558195919</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.6236779689788818</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.5295044779777527</v>
       </c>
       <c r="W89" t="n">
-        <v>3.863279744109605e-06</v>
+        <v>0.008868646807968616</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5519890785217285</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.8877142667770386</v>
       </c>
       <c r="W90" t="n">
-        <v>0.006055549252778292</v>
+        <v>0.1127113997936249</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5897831916809082</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.4867973923683167</v>
       </c>
       <c r="W91" t="n">
-        <v>0.005011315923184156</v>
+        <v>0.01060607470571995</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.591717004776001</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.9811047911643982</v>
       </c>
       <c r="W92" t="n">
-        <v>0.001144246198236942</v>
+        <v>0.1516228467226028</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.524960994720459</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.4815043807029724</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001932437531650066</v>
+        <v>0.001888477359898388</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.7549428939819336</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4883000254631042</v>
       </c>
       <c r="W94" t="n">
-        <v>0.04275013506412506</v>
+        <v>0.07109841704368591</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5374729633331299</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.4705626964569092</v>
       </c>
       <c r="W95" t="n">
-        <v>0.006370134651660919</v>
+        <v>0.004476984031498432</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5165271759033203</v>
       </c>
       <c r="V96" t="n">
-        <v>0.812067985534668</v>
+        <v>0.470183789730072</v>
       </c>
       <c r="W96" t="n">
-        <v>0.08734437078237534</v>
+        <v>0.002147709485143423</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5244438648223877</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.9161677956581116</v>
       </c>
       <c r="W97" t="n">
-        <v>0.007817480713129044</v>
+        <v>0.1534476429224014</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5158610343933105</v>
       </c>
       <c r="V98" t="n">
-        <v>0.436014860868454</v>
+        <v>0.9587090611457825</v>
       </c>
       <c r="W98" t="n">
-        <v>0.00637541152536869</v>
+        <v>0.1961143761873245</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5310909748077393</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.5385157465934753</v>
       </c>
       <c r="W99" t="n">
-        <v>0.008727257139980793</v>
+        <v>5.512723510037176e-05</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.517362117767334</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.9382079243659973</v>
       </c>
       <c r="W100" t="n">
-        <v>0.01951410621404648</v>
+        <v>0.1771111935377121</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5188789367675781</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.5032827258110046</v>
       </c>
       <c r="W101" t="n">
-        <v>0.002349808113649487</v>
+        <v>0.0002432417968520895</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4108381271362305</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5883157253265381</v>
       </c>
       <c r="W102" t="n">
-        <v>0.06132055819034576</v>
+        <v>0.03149829804897308</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4073541164398193</v>
       </c>
       <c r="V103" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4703875780105591</v>
       </c>
       <c r="W103" t="n">
-        <v>0.1676058173179626</v>
+        <v>0.003973217215389013</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4142739772796631</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.5125066041946411</v>
       </c>
       <c r="W104" t="n">
-        <v>0.002510024700313807</v>
+        <v>0.009649649262428284</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4559321403503418</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.4877326488494873</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01443567126989365</v>
+        <v>0.00101127231027931</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3888630867004395</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4730945229530334</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0001065191681846045</v>
+        <v>0.007094935048371553</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.386958122253418</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.8768919110298157</v>
       </c>
       <c r="W107" t="n">
-        <v>4.582260953611694e-05</v>
+        <v>0.2400351166725159</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3896489143371582</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.4771549701690674</v>
       </c>
       <c r="W108" t="n">
-        <v>0.03171124309301376</v>
+        <v>0.007657309994101524</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3867759704589844</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4967581033706665</v>
       </c>
       <c r="W109" t="n">
-        <v>0.07512764632701874</v>
+        <v>0.01209606975317001</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.388347864151001</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4822988510131836</v>
       </c>
       <c r="W110" t="n">
-        <v>0.02700145170092583</v>
+        <v>0.008826787583529949</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3909280300140381</v>
       </c>
       <c r="V111" t="n">
-        <v>0.505409836769104</v>
+        <v>0.4968282580375671</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01310608442872763</v>
+        <v>0.0112148579210043</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4128739833831787</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.8932939171791077</v>
       </c>
       <c r="W112" t="n">
-        <v>0.03535523638129234</v>
+        <v>0.2308033108711243</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3931448459625244</v>
       </c>
       <c r="V113" t="n">
-        <v>0.475897878408432</v>
+        <v>0.9311768412590027</v>
       </c>
       <c r="W113" t="n">
-        <v>0.006848064251244068</v>
+        <v>0.2894784212112427</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3909440040588379</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.5294958353042603</v>
       </c>
       <c r="W114" t="n">
-        <v>0.02675597928464413</v>
+        <v>0.01919660903513432</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3906340599060059</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.4971699714660645</v>
       </c>
       <c r="W115" t="n">
-        <v>0.005703231319785118</v>
+        <v>0.01134990062564611</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3910419940948486</v>
       </c>
       <c r="V116" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.4935697317123413</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0549941323697567</v>
+        <v>0.01051193661987782</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3902850151062012</v>
       </c>
       <c r="V117" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4990767240524292</v>
       </c>
       <c r="W117" t="n">
-        <v>0.116553895175457</v>
+        <v>0.01183563563972712</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4208979606628418</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.9233392477035522</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0002286432281835005</v>
+        <v>0.252447247505188</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3909099102020264</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.5127992033958435</v>
       </c>
       <c r="W119" t="n">
-        <v>0.183072566986084</v>
+        <v>0.01485699974000454</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3922350406646729</v>
       </c>
       <c r="V120" t="n">
-        <v>0.816550612449646</v>
+        <v>0.4906954169273376</v>
       </c>
       <c r="W120" t="n">
-        <v>0.1800436973571777</v>
+        <v>0.009694445878267288</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3926191329956055</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.8779711127281189</v>
       </c>
       <c r="W121" t="n">
-        <v>0.001884301542304456</v>
+        <v>0.2355665415525436</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8782310485839844</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4817521572113037</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1758924424648285</v>
+        <v>0.157195508480072</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9876899719238281</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.506782054901123</v>
       </c>
       <c r="W123" t="n">
-        <v>0.273733913898468</v>
+        <v>0.231272429227829</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8795359134674072</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.5297185778617859</v>
       </c>
       <c r="W124" t="n">
-        <v>0.03780139982700348</v>
+        <v>0.1223721653223038</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8745310306549072</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.8807987570762634</v>
       </c>
       <c r="W125" t="n">
-        <v>0.06191142648458481</v>
+        <v>3.928439400624484e-05</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8740808963775635</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.8812435269355774</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1389218866825104</v>
+        <v>5.130327554070391e-05</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9233920574188232</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4974907636642456</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1953710615634918</v>
+        <v>0.1813919097185135</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8597650527954102</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.957577109336853</v>
       </c>
       <c r="W128" t="n">
-        <v>0.04116993024945259</v>
+        <v>0.009567198343575001</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8692409992218018</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.8879148960113525</v>
       </c>
       <c r="W129" t="n">
-        <v>0.04995433241128922</v>
+        <v>0.0003487144131213427</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8799560070037842</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.4799469709396362</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1970852762460709</v>
+        <v>0.1600072234869003</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8978049755096436</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4813926219940186</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1936979442834854</v>
+        <v>0.1733992546796799</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8709890842437744</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.9137102365493774</v>
       </c>
       <c r="W132" t="n">
-        <v>0.07086730003356934</v>
+        <v>0.001825096900574863</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8788979053497314</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4700295329093933</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2384001910686493</v>
+        <v>0.1671733409166336</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8618471622467041</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5875163674354553</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1634559333324432</v>
+        <v>0.07525738328695297</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>1.05617094039917</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.6034993529319763</v>
       </c>
       <c r="W135" t="n">
-        <v>0.3845813870429993</v>
+        <v>0.2049115598201752</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8799571990966797</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.4908628463745117</v>
       </c>
       <c r="W136" t="n">
-        <v>0.05657622963190079</v>
+        <v>0.1513944119215012</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8671789169311523</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.5294497609138489</v>
       </c>
       <c r="W137" t="n">
-        <v>0.08650816231966019</v>
+        <v>0.1140609830617905</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9123048782348633</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.9104872345924377</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2267822623252869</v>
+        <v>3.30382840729726e-06</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8689889907836914</v>
       </c>
       <c r="V139" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.4814134836196899</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2293368279933929</v>
+        <v>0.1502147763967514</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8708188533782959</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.8744478225708008</v>
       </c>
       <c r="W140" t="n">
-        <v>0.03908619657158852</v>
+        <v>1.316941779805347e-05</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8649239540100098</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5886926054954529</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1843143850564957</v>
+        <v>0.07630375772714615</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5187549591064453</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.4812838435173035</v>
       </c>
       <c r="W142" t="n">
-        <v>0.002312353812158108</v>
+        <v>0.00140408449806273</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5201430320739746</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.4814638495445251</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01874188892543316</v>
+        <v>0.001496079144999385</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5215160846710205</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.4904015064239502</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02030905708670616</v>
+        <v>0.0009681169758550823</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5182158946990967</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.4800214171409607</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0002701904450077564</v>
+        <v>0.001458818092942238</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5176069736480713</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.481917142868042</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0001936820335686207</v>
+        <v>0.001273764064535499</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.548659086227417</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.4974952936172485</v>
       </c>
       <c r="W147" t="n">
-        <v>0.006073819473385811</v>
+        <v>0.002617733785882592</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5717880725860596</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.9058129191398621</v>
       </c>
       <c r="W148" t="n">
-        <v>0.002235247520729899</v>
+        <v>0.1115726009011269</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5193459987640381</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.9143254160881042</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01171254459768534</v>
+        <v>0.1560087352991104</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.519136905670166</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.9329472780227661</v>
       </c>
       <c r="W150" t="n">
-        <v>0.004297884646803141</v>
+        <v>0.1712390184402466</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5176470279693604</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.6035724878311157</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01589103601872921</v>
+        <v>0.007383184507489204</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5162220001220703</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.5294357538223267</v>
       </c>
       <c r="W152" t="n">
-        <v>0.002709837863221765</v>
+        <v>0.0001746032939990982</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5164890289306641</v>
       </c>
       <c r="V153" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.9414095282554626</v>
       </c>
       <c r="W153" t="n">
-        <v>0.04665634408593178</v>
+        <v>0.1805574297904968</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5195691585540771</v>
       </c>
       <c r="V154" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5691263675689697</v>
       </c>
       <c r="W154" t="n">
-        <v>0.04720745235681534</v>
+        <v>0.00245591695420444</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5217897891998291</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.4804682731628418</v>
       </c>
       <c r="W155" t="n">
-        <v>0.000835769809782505</v>
+        <v>0.001707467716187239</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.532465934753418</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.8997425436973572</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01352970767766237</v>
+        <v>0.1348921060562134</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5208268165588379</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.9282103776931763</v>
       </c>
       <c r="W157" t="n">
-        <v>0.00422475952655077</v>
+        <v>0.1659613698720932</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.519230842590332</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.9656803607940674</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01999432593584061</v>
+        <v>0.1993171721696854</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5366659164428711</v>
       </c>
       <c r="V159" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.947542667388916</v>
       </c>
       <c r="W159" t="n">
-        <v>0.07807321846485138</v>
+        <v>0.1688197106122971</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5238261222839355</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.4800169467926025</v>
       </c>
       <c r="W160" t="n">
-        <v>0.00177657906897366</v>
+        <v>0.001919243833981454</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5205490589141846</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.5499973893165588</v>
       </c>
       <c r="W161" t="n">
-        <v>0.002013334538787603</v>
+        <v>0.0008672041585668921</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3945679664611816</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4917320609092712</v>
       </c>
       <c r="W162" t="n">
-        <v>0.004047754686325788</v>
+        <v>0.009440861642360687</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.388002872467041</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.4802579879760742</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06538467854261398</v>
+        <v>0.008511005900800228</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3870429992675781</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4839916229248047</v>
       </c>
       <c r="W164" t="n">
-        <v>0.005102163646370173</v>
+        <v>0.009399035945534706</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3943579196929932</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.5295358896255493</v>
       </c>
       <c r="W165" t="n">
-        <v>0.004130708053708076</v>
+        <v>0.01827308349311352</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3918938636779785</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5296128392219543</v>
       </c>
       <c r="W166" t="n">
-        <v>0.004444348625838757</v>
+        <v>0.01896651647984982</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3967030048370361</v>
       </c>
       <c r="V167" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.5044468641281128</v>
       </c>
       <c r="W167" t="n">
-        <v>0.1818767935037613</v>
+        <v>0.0116087393835187</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4005968570709229</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.8933732509613037</v>
       </c>
       <c r="W168" t="n">
-        <v>0.02918325923383236</v>
+        <v>0.2428285777568817</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3941287994384766</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4748354554176331</v>
       </c>
       <c r="W169" t="n">
-        <v>0.05272549763321877</v>
+        <v>0.006513564381748438</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3948209285736084</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.481656014919281</v>
       </c>
       <c r="W170" t="n">
-        <v>0.05339948087930679</v>
+        <v>0.007540332153439522</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3923599720001221</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.4894516468048096</v>
       </c>
       <c r="W171" t="n">
-        <v>0.06321094930171967</v>
+        <v>0.009426793083548546</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3947429656982422</v>
       </c>
       <c r="V172" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5886086821556091</v>
       </c>
       <c r="W172" t="n">
-        <v>0.02782254479825497</v>
+        <v>0.03758391737937927</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3942179679870605</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.5856594443321228</v>
       </c>
       <c r="W173" t="n">
-        <v>0.02491433545947075</v>
+        <v>0.03664983808994293</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3921840190887451</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.4798529148101807</v>
       </c>
       <c r="W174" t="n">
-        <v>0.02547665685415268</v>
+        <v>0.007685835473239422</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3919720649719238</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.8886300325393677</v>
       </c>
       <c r="W175" t="n">
-        <v>0.07080447673797607</v>
+        <v>0.2466691434383392</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3938288688659668</v>
       </c>
       <c r="V176" t="n">
-        <v>0.473930835723877</v>
+        <v>0.5879647135734558</v>
       </c>
       <c r="W176" t="n">
-        <v>0.006416324991732836</v>
+        <v>0.0376887246966362</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4734749794006348</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.9861956238746643</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0218233410269022</v>
+        <v>0.2628824710845947</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3942890167236328</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.8865587115287781</v>
       </c>
       <c r="W178" t="n">
-        <v>0.07071080803871155</v>
+        <v>0.2423294484615326</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3940341472625732</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.9509141445159912</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0002307308313902467</v>
+        <v>0.3101153373718262</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3913469314575195</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.4870671033859253</v>
       </c>
       <c r="W180" t="n">
-        <v>0.005581737030297518</v>
+        <v>0.009162351489067078</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.3995919227600098</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.9458489418029785</v>
       </c>
       <c r="W181" t="n">
-        <v>0.08087718486785889</v>
+        <v>0.2983967363834381</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9144349098205566</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.9137047529220581</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2288779616355896</v>
+        <v>5.331290822141455e-07</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8807940483093262</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.5892885327339172</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1720521301031113</v>
+        <v>0.084975466132164</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8646979331970215</v>
       </c>
       <c r="V184" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.4917551875114441</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2252430617809296</v>
+        <v>0.1390862911939621</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8704819679260254</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4963690042495728</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2421664595603943</v>
+        <v>0.1399605125188828</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8965930938720703</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.5001624822616577</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1956215798854828</v>
+        <v>0.157157227396965</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9009768962860107</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.5862168669700623</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1845478117465973</v>
+        <v>0.09907387942075729</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8677668571472168</v>
       </c>
       <c r="V188" t="n">
-        <v>0.57613205909729</v>
+        <v>0.4876309633255005</v>
       </c>
       <c r="W188" t="n">
-        <v>0.08505085855722427</v>
+        <v>0.1445032954216003</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8664040565490723</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.9028392434120178</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1527832448482513</v>
+        <v>0.001327522797510028</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9241790771484375</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.8877914547920227</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1837294399738312</v>
+        <v>0.001324059092439711</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8966829776763916</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4963932633399963</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1787221729755402</v>
+        <v>0.1602318584918976</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8607211112976074</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.9326291084289551</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1239092871546745</v>
+        <v>0.005170760210603476</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8685550689697266</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.5125287771224976</v>
       </c>
       <c r="W193" t="n">
-        <v>0.03257798030972481</v>
+        <v>0.1267547160387039</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9298441410064697</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.8717027902603149</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1817383915185928</v>
+        <v>0.003380416659638286</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8719420433044434</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.5054833889007568</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1369005292654037</v>
+        <v>0.13429194688797</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8620579242706299</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.9282674193382263</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1815045475959778</v>
+        <v>0.004383697174489498</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8667190074920654</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5126739144325256</v>
       </c>
       <c r="W197" t="n">
-        <v>0.06159190833568573</v>
+        <v>0.1253479272127151</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9353389739990234</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4994598627090454</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2314295619726181</v>
+        <v>0.1899905949831009</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8705620765686035</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.5002456903457642</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1004988476634026</v>
+        <v>0.1371342241764069</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8645579814910889</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.9235715866088867</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1300421953201294</v>
+        <v>0.003482605563476682</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8873090744018555</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.4866459369659424</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1486622393131256</v>
+        <v>0.1605309545993805</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5730948448181152</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5506331920623779</v>
       </c>
       <c r="W202" t="n">
-        <v>0.004734600894153118</v>
+        <v>0.0005045258440077305</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5187461376190186</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.8653034567832947</v>
       </c>
       <c r="W203" t="n">
-        <v>0.003749182680621743</v>
+        <v>0.1201019734144211</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5438840389251709</v>
       </c>
       <c r="V204" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4814032316207886</v>
       </c>
       <c r="W204" t="n">
-        <v>0.02734094485640526</v>
+        <v>0.003903851378709078</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5185070037841797</v>
       </c>
       <c r="V205" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.4814757704734802</v>
       </c>
       <c r="W205" t="n">
-        <v>0.04839377105236053</v>
+        <v>0.001371312187984586</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5194830894470215</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.5051202774047852</v>
       </c>
       <c r="W206" t="n">
-        <v>0.003721620421856642</v>
+        <v>0.0002062903658952564</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5173511505126953</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5212397575378418</v>
       </c>
       <c r="W207" t="n">
-        <v>0.00263476581312716</v>
+        <v>1.512126436864492e-05</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5172579288482666</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.9327510595321655</v>
       </c>
       <c r="W208" t="n">
-        <v>0.00659992778673768</v>
+        <v>0.1726345419883728</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.526237964630127</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.8926100134849548</v>
       </c>
       <c r="W209" t="n">
-        <v>0.000682419806253165</v>
+        <v>0.1342284828424454</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5203499794006348</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.476209282875061</v>
       </c>
       <c r="W210" t="n">
-        <v>0.009317066520452499</v>
+        <v>0.001948401099070907</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5229020118713379</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5030349493026733</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01976175606250763</v>
+        <v>0.0003947001823689789</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5220921039581299</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.8876373171806335</v>
       </c>
       <c r="W212" t="n">
-        <v>2.125906348737772e-06</v>
+        <v>0.1336233019828796</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5775690078735352</v>
       </c>
       <c r="V213" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.4862887263298035</v>
       </c>
       <c r="W213" t="n">
-        <v>0.05703912675380707</v>
+        <v>0.008332089520990849</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5237390995025635</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.5047990679740906</v>
       </c>
       <c r="W214" t="n">
-        <v>0.002025597030296922</v>
+        <v>0.000358724792022258</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5385229587554932</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.5329476594924927</v>
       </c>
       <c r="W215" t="n">
-        <v>0.006555092055350542</v>
+        <v>3.108396049356088e-05</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.522942066192627</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.5329969525337219</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01028863713145256</v>
+        <v>0.0001011007407214493</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5198440551757812</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5293972492218018</v>
       </c>
       <c r="W217" t="n">
-        <v>0.002018606755882502</v>
+        <v>9.126351505983621e-05</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5384011268615723</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5031154751777649</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0139335673302412</v>
+        <v>0.001245077233761549</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5238790512084961</v>
       </c>
       <c r="V219" t="n">
-        <v>0.390147477388382</v>
+        <v>0.9115838408470154</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01788413338363171</v>
+        <v>0.1503150016069412</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5223319530487061</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.9465572237968445</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01036493200808764</v>
+        <v>0.179967075586319</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5204188823699951</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.4967079758644104</v>
       </c>
       <c r="W221" t="n">
-        <v>0.00928062666207552</v>
+        <v>0.0005622070748358965</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3889620304107666</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.4783000349998474</v>
       </c>
       <c r="W222" t="n">
-        <v>0.02709316462278366</v>
+        <v>0.00798127893358469</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3904690742492676</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.5294860601425171</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01238447707146406</v>
+        <v>0.01932572200894356</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.451002836227417</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.5123634338378906</v>
       </c>
       <c r="W224" t="n">
-        <v>0.03037943504750729</v>
+        <v>0.003765122964978218</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3919010162353516</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.5827010273933411</v>
       </c>
       <c r="W225" t="n">
-        <v>0.05248298123478889</v>
+        <v>0.03640464320778847</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.394556999206543</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4834778904914856</v>
       </c>
       <c r="W226" t="n">
-        <v>0.0241523589938879</v>
+        <v>0.007906924933195114</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3949589729309082</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.4691698551177979</v>
       </c>
       <c r="W227" t="n">
-        <v>0.001686320174485445</v>
+        <v>0.005507254973053932</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3946681022644043</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9827693104743958</v>
       </c>
       <c r="W228" t="n">
-        <v>0.07759243994951248</v>
+        <v>0.3458630442619324</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4027888774871826</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4700055122375488</v>
       </c>
       <c r="W229" t="n">
-        <v>0.003036400070413947</v>
+        <v>0.004518075846135616</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4266281127929688</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4989402294158936</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0008123972802422941</v>
+        <v>0.005229042377322912</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3932058811187744</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4971261620521545</v>
       </c>
       <c r="W231" t="n">
-        <v>0.06939931958913803</v>
+        <v>0.01079942472279072</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3953051567077637</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.8886143565177917</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0236127320677042</v>
+        <v>0.2433539628982544</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3948218822479248</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.5029829740524292</v>
       </c>
       <c r="W233" t="n">
-        <v>0.002905088244006038</v>
+        <v>0.01169882155954838</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3960738182067871</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.4750006794929504</v>
       </c>
       <c r="W234" t="n">
-        <v>0.03244252502918243</v>
+        <v>0.006229449529200792</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4033010005950928</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.4819233417510986</v>
       </c>
       <c r="W235" t="n">
-        <v>0.02847790718078613</v>
+        <v>0.006181472446769476</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3966259956359863</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.5297623872756958</v>
       </c>
       <c r="W236" t="n">
-        <v>0.05185152217745781</v>
+        <v>0.01772529818117619</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4052741527557373</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.4780069589614868</v>
       </c>
       <c r="W237" t="n">
-        <v>0.00499647855758667</v>
+        <v>0.005290061235427856</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3880190849304199</v>
       </c>
       <c r="V238" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.4810364246368408</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1284943073987961</v>
+        <v>0.008652225136756897</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3911049365997314</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.476193368434906</v>
       </c>
       <c r="W239" t="n">
-        <v>0.002037640893831849</v>
+        <v>0.00724004115909338</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.38773512840271</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.4809083342552185</v>
       </c>
       <c r="W240" t="n">
-        <v>0.002331502269953489</v>
+        <v>0.00868124607950449</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4026589393615723</v>
       </c>
       <c r="V241" t="n">
-        <v>0.569115161895752</v>
+        <v>0.9387683272361755</v>
       </c>
       <c r="W241" t="n">
-        <v>0.02770767360925674</v>
+        <v>0.2874132692813873</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9672250747680664</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.4963725805282593</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2821727395057678</v>
+        <v>0.2217020690441132</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8975329399108887</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.497505784034729</v>
       </c>
       <c r="W243" t="n">
-        <v>0.07725974172353745</v>
+        <v>0.1600217223167419</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8821520805358887</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9256345629692078</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1565773338079453</v>
+        <v>0.001890726271085441</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8822150230407715</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.9163472056388855</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1989900767803192</v>
+        <v>0.001165005844086409</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9294102191925049</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.5053200125694275</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2250054627656937</v>
+        <v>0.1798525005578995</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8806769847869873</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.529478907585144</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1478180438280106</v>
+        <v>0.1233400925993919</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8689508438110352</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.5028089284896851</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1568211913108826</v>
+        <v>0.1340599060058594</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8754711151123047</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.9454622864723206</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1076224446296692</v>
+        <v>0.004898764193058014</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9226012229919434</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.4989131093025208</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2371499240398407</v>
+        <v>0.179511621594429</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8905770778656006</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.9158734083175659</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2068732231855392</v>
+        <v>0.0006399043486453593</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8801388740539551</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4982609748840332</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1784046441316605</v>
+        <v>0.1458307355642319</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8717520236968994</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.4838554859161377</v>
       </c>
       <c r="W253" t="n">
-        <v>0.04546038061380386</v>
+        <v>0.150463730096817</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9338409900665283</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4837856888771057</v>
       </c>
       <c r="W254" t="n">
-        <v>0.0842413604259491</v>
+        <v>0.2025497704744339</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8768959045410156</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5126087069511414</v>
       </c>
       <c r="W255" t="n">
-        <v>0.06532202661037445</v>
+        <v>0.1327051669359207</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8689939975738525</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.4702208042144775</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1329884082078934</v>
+        <v>0.1590200662612915</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8710601329803467</v>
       </c>
       <c r="V257" t="n">
-        <v>0.504918098449707</v>
+        <v>0.9089357256889343</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1340599954128265</v>
+        <v>0.001434560515917838</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.924069881439209</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.503349244594574</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2967157661914825</v>
+        <v>0.1770058572292328</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8751871585845947</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.512409508228302</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1777418702840805</v>
+        <v>0.1316076219081879</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8642239570617676</v>
       </c>
       <c r="V260" t="n">
-        <v>0.630542516708374</v>
+        <v>0.8882907032966614</v>
       </c>
       <c r="W260" t="n">
-        <v>0.05460701510310173</v>
+        <v>0.0005792082520201802</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8767940998077393</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.4697983860969543</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1942781209945679</v>
+        <v>0.1656455099582672</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5711698532104492</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5049270987510681</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0002581532171461731</v>
+        <v>0.004388102330267429</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5552577972412109</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.5329733490943909</v>
       </c>
       <c r="W263" t="n">
-        <v>0.00527122849598527</v>
+        <v>0.0004965966218151152</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5221548080444336</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.5863836407661438</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0002401080273557454</v>
+        <v>0.004125343170017004</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.525860071182251</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.5126899480819702</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0006169484695419669</v>
+        <v>0.0001734521356411278</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5292031764984131</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.8770730495452881</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0005824979161843657</v>
+        <v>0.1210134476423264</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.600391149520874</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4576262831687927</v>
+        <v>1.080001831054688</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02038180641829967</v>
+        <v>0.2300264090299606</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5250649452209473</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.8615772128105164</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01781915687024593</v>
+        <v>0.1132405027747154</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5265078544616699</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4848021864891052</v>
       </c>
       <c r="W269" t="n">
-        <v>0.00360943004488945</v>
+        <v>0.001739362720400095</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.52264404296875</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.5295602679252625</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01980570331215858</v>
+        <v>4.783416807185858e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5447931289672852</v>
       </c>
       <c r="V271" t="n">
-        <v>0.624763011932373</v>
+        <v>0.4833565950393677</v>
       </c>
       <c r="W271" t="n">
-        <v>0.006395182106643915</v>
+        <v>0.003774447599425912</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5284049510955811</v>
       </c>
       <c r="V272" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4775438904762268</v>
       </c>
       <c r="W272" t="n">
-        <v>0.04786533117294312</v>
+        <v>0.002586847404018044</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5259659290313721</v>
       </c>
       <c r="V273" t="n">
-        <v>0.436027318239212</v>
+        <v>0.8748907446861267</v>
       </c>
       <c r="W273" t="n">
-        <v>0.008088953793048859</v>
+        <v>0.1217485293745995</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5542728900909424</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.4814566969871521</v>
       </c>
       <c r="W274" t="n">
-        <v>0.0002285864466102794</v>
+        <v>0.005302197765558958</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5230691432952881</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.4803231358528137</v>
       </c>
       <c r="W275" t="n">
-        <v>0.02079225517809391</v>
+        <v>0.001827221130952239</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5225927829742432</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.5295037031173706</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01459460332989693</v>
+        <v>4.776081550517119e-05</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5266740322113037</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.5300244092941284</v>
       </c>
       <c r="W277" t="n">
-        <v>0.009835722856223583</v>
+        <v>1.122502635553246e-05</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5616528987884521</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.4994634389877319</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01578318700194359</v>
+        <v>0.0038675288669765</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5280048847198486</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5864173769950867</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0005752758588641882</v>
+        <v>0.003412019228562713</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5216410160064697</v>
       </c>
       <c r="V280" t="n">
-        <v>0.551807165145874</v>
+        <v>0.5123680830001831</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0009099965682253242</v>
+        <v>8.598728891229257e-05</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5326311588287354</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.8857994079589844</v>
       </c>
       <c r="W281" t="n">
-        <v>0.004389741457998753</v>
+        <v>0.1247278153896332</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4524781703948975</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4700434803962708</v>
       </c>
       <c r="W282" t="n">
-        <v>0.002670985413715243</v>
+        <v>0.0003085401258431375</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4744329452514648</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.9295012354850769</v>
       </c>
       <c r="W283" t="n">
-        <v>0.005941309966146946</v>
+        <v>0.2070871442556381</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4434061050415039</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.4728596210479736</v>
       </c>
       <c r="W284" t="n">
-        <v>0.03408050164580345</v>
+        <v>0.000867509632371366</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4011349678039551</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.9313945174217224</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1780825406312943</v>
+        <v>0.2811751961708069</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3992571830749512</v>
       </c>
       <c r="V286" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5046750903129578</v>
       </c>
       <c r="W286" t="n">
-        <v>0.05063756555318832</v>
+        <v>0.01111293490976095</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4034531116485596</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.9267898201942444</v>
       </c>
       <c r="W287" t="n">
-        <v>0.04868714138865471</v>
+        <v>0.2738813161849976</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4011249542236328</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.8775829672813416</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0231587216258049</v>
+        <v>0.2270122319459915</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4383440017700195</v>
       </c>
       <c r="V289" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.8675047159194946</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0889432281255722</v>
+        <v>0.1841789186000824</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3972949981689453</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.9324559569358826</v>
       </c>
       <c r="W290" t="n">
-        <v>0.003173347096890211</v>
+        <v>0.286397248506546</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.405797004699707</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.8890901207923889</v>
       </c>
       <c r="W291" t="n">
-        <v>0.001326615223661065</v>
+        <v>0.2335722297430038</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4050390720367432</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.9439499974250793</v>
       </c>
       <c r="W292" t="n">
-        <v>0.02194194868206978</v>
+        <v>0.2904249727725983</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3970668315887451</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.8855774402618408</v>
       </c>
       <c r="W293" t="n">
-        <v>0.08525456488132477</v>
+        <v>0.238642618060112</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3950989246368408</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.9011180996894836</v>
       </c>
       <c r="W294" t="n">
-        <v>0.0532083623111248</v>
+        <v>0.2560554146766663</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3956139087677002</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.5885400176048279</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01450984459370375</v>
+        <v>0.03722048178315163</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3970389366149902</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.4797300696372986</v>
       </c>
       <c r="W296" t="n">
-        <v>0.06749459356069565</v>
+        <v>0.006837823428213596</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4007880687713623</v>
       </c>
       <c r="V297" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4791914224624634</v>
       </c>
       <c r="W297" t="n">
-        <v>0.1728066504001617</v>
+        <v>0.006147085689008236</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3968091011047363</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.8878164291381836</v>
       </c>
       <c r="W298" t="n">
-        <v>0.02336178347468376</v>
+        <v>0.2410881966352463</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4076671600341797</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.8810288906097412</v>
       </c>
       <c r="W299" t="n">
-        <v>0.02158782258629799</v>
+        <v>0.2240713238716125</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3982610702514648</v>
       </c>
       <c r="V300" t="n">
-        <v>0.618610143661499</v>
+        <v>0.888515830039978</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0485537126660347</v>
+        <v>0.2403497248888016</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982551097869873</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4991040229797363</v>
       </c>
       <c r="W301" t="n">
-        <v>0.001452864147722721</v>
+        <v>0.01017050351947546</v>
       </c>
     </row>
     <row r="302" spans="1:23">
